--- a/biology/Zoologie/Dryinidae/Dryinidae.xlsx
+++ b/biology/Zoologie/Dryinidae/Dryinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dryinidae sont une famille d'insectes hyménoptères apocrites de la super-famille des Chrysidoidea. Ils sont répartis en six sous-familles totalisant plus de 1 300 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les mâles sont ailés,
 les femelles sont soit ailées, soit brachyptères, ou le plus souvent aptères.
@@ -544,7 +558,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils parasitent les nymphes des Homoptères auchenorrhynches appartenant aux super-familles des Membracoidea et des Fulgoroidea. Les femelles saisissent leur hôte au moyen de leurs pinces et les paralysent légèrement par une piqûre puis déposent un œuf sur le côté de l'abdomen, à la base des ailes. La larve ectoparasitoïde se développe dans une sorte de sac formé par les exuvies des mues successives et qui est fixé sur le dos de la victime.
 Les mâles sont rarement observés.
@@ -577,7 +593,9 @@
           <t>Lutte biologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Des essais ont été faits pour les utiliser contre les Metcalfa pruinosa (Flatidae), "cicadelles" nuisibles polyphages.
 </t>
@@ -608,7 +626,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Anteoninae (R.C.L. Perkins, 1912)
 Anteon Jurine, 1807
